--- a/ゲーム制作３　小林柊斗.xlsx
+++ b/ゲーム制作３　小林柊斗.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81803\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81803\OneDrive\デスクトップ\04KobayashiS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF65B8A-1FD5-4A4D-A784-B4CB586C429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D690912-CCF5-4102-9093-826EC8451808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="180" windowWidth="14100" windowHeight="15015" activeTab="1" xr2:uid="{5976E287-5018-49A7-97D8-126F7EEFB620}"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="14100" windowHeight="15015" xr2:uid="{5976E287-5018-49A7-97D8-126F7EEFB620}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>ゲーム制作３企画書</t>
     <rPh sb="3" eb="5">
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>２，アイテム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>面白さ</t>
     <rPh sb="0" eb="2">
       <t>オモシロ</t>
@@ -60,13 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>３、敵</t>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
@@ -250,17 +239,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Wキー：前進移動</t>
-    <rPh sb="4" eb="6">
-      <t>ゼンシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
+    <t>スケジュール（週）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右左移動　ジャンプ</t>
+    <rPh sb="0" eb="2">
+      <t>ミギヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケジュール（週）</t>
+    <t>をする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回無敵</t>
+    <rPh sb="0" eb="2">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ムテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たってくるとダメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADキー：左右移動</t>
+    <rPh sb="5" eb="7">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5回触れるとゲームオーバー</t>
+    <rPh sb="1" eb="3">
+      <t>カイフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃弾で死ぬorよける</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３，アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４、敵</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2銃弾</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を撃てる　　</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -346,15 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -366,6 +426,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,46 +750,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FFF9091-0765-499A-8FC7-E5C13323D0BD}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
@@ -728,25 +797,56 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -765,237 +865,237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5370363E-00DB-4500-8C18-DCF04FF74E02}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>7</v>
+      </c>
+      <c r="O3" s="4">
         <v>8</v>
       </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3</v>
-      </c>
-      <c r="K3" s="7">
-        <v>4</v>
-      </c>
-      <c r="L3" s="7">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7">
-        <v>6</v>
-      </c>
-      <c r="N3" s="7">
-        <v>7</v>
-      </c>
-      <c r="O3" s="7">
-        <v>8</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="P3" s="4">
         <v>9</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="4">
         <v>10</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="I7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="K9" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H19" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="O25" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="I28" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="J31" s="5"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="N34" s="5"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="5"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q42" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
